--- a/Code/Results/Cases/Case_0_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_152/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.929866118246569</v>
+        <v>13.02148943381431</v>
       </c>
       <c r="D2">
-        <v>4.823336315641667</v>
+        <v>6.101878592698917</v>
       </c>
       <c r="E2">
-        <v>8.388620376418997</v>
+        <v>13.33796903530186</v>
       </c>
       <c r="F2">
-        <v>20.31652752867728</v>
+        <v>29.46868237896947</v>
       </c>
       <c r="G2">
-        <v>2.09252078354228</v>
+        <v>3.668620872007347</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.79517858441995</v>
+        <v>15.44481571709794</v>
       </c>
       <c r="L2">
-        <v>5.16179253383245</v>
+        <v>9.17649479592067</v>
       </c>
       <c r="M2">
-        <v>16.44274179765286</v>
+        <v>17.89159082318793</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.46282494060795</v>
+        <v>26.42479909034651</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.587634025677602</v>
+        <v>12.99936632806163</v>
       </c>
       <c r="D3">
-        <v>4.750836225197337</v>
+        <v>6.082845908519899</v>
       </c>
       <c r="E3">
-        <v>8.310988217814723</v>
+        <v>13.36868267306908</v>
       </c>
       <c r="F3">
-        <v>20.02739982969729</v>
+        <v>29.57150027655167</v>
       </c>
       <c r="G3">
-        <v>2.09911803284428</v>
+        <v>3.671061570125231</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.44036406867663</v>
+        <v>14.93775709279146</v>
       </c>
       <c r="L3">
-        <v>5.216035374927097</v>
+        <v>9.203705098353741</v>
       </c>
       <c r="M3">
-        <v>15.53618809888023</v>
+        <v>17.68531480047369</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.49702289832401</v>
+        <v>26.5564774297373</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.379140470667451</v>
+        <v>12.98891863063415</v>
       </c>
       <c r="D4">
-        <v>4.706127525823085</v>
+        <v>6.071262935115393</v>
       </c>
       <c r="E4">
-        <v>8.269599646663755</v>
+        <v>13.39015640187051</v>
       </c>
       <c r="F4">
-        <v>19.87703369936143</v>
+        <v>29.64421741816964</v>
       </c>
       <c r="G4">
-        <v>2.103282278765259</v>
+        <v>3.672638510521594</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.56100584013264</v>
+        <v>14.61845896621865</v>
       </c>
       <c r="L4">
-        <v>5.251423168107945</v>
+        <v>9.221454542092367</v>
       </c>
       <c r="M4">
-        <v>14.95717500160579</v>
+        <v>17.55975735255869</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.54110948345585</v>
+        <v>26.6446756363319</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.294701947708637</v>
+        <v>12.98545272501369</v>
       </c>
       <c r="D5">
-        <v>4.687870152240994</v>
+        <v>6.066570462588697</v>
       </c>
       <c r="E5">
-        <v>8.254276640504033</v>
+        <v>13.39956377547744</v>
       </c>
       <c r="F5">
-        <v>19.82239936610962</v>
+        <v>29.67624845918291</v>
       </c>
       <c r="G5">
-        <v>2.105008740027732</v>
+        <v>3.673300891530008</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.19067444572447</v>
+        <v>14.48652319269797</v>
       </c>
       <c r="L5">
-        <v>5.266358728621945</v>
+        <v>9.228950097597512</v>
       </c>
       <c r="M5">
-        <v>14.71578932798057</v>
+        <v>17.50891720582386</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.56456857422284</v>
+        <v>26.68245763504008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.280716077349279</v>
+        <v>12.98492510091399</v>
       </c>
       <c r="D6">
-        <v>4.684836535863899</v>
+        <v>6.065793003471857</v>
       </c>
       <c r="E6">
-        <v>8.251824379087275</v>
+        <v>13.40116549154802</v>
       </c>
       <c r="F6">
-        <v>19.81372244877773</v>
+        <v>29.68171166107327</v>
       </c>
       <c r="G6">
-        <v>2.105297226123588</v>
+        <v>3.673412075068542</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.12845628986959</v>
+        <v>14.46451114366066</v>
       </c>
       <c r="L6">
-        <v>5.26886961263893</v>
+        <v>9.230210597082745</v>
       </c>
       <c r="M6">
-        <v>14.67538589621683</v>
+        <v>17.50049634240744</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.56878663476983</v>
+        <v>26.68884226478974</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.377999426800123</v>
+        <v>12.98886867949142</v>
       </c>
       <c r="D7">
-        <v>4.70588144108111</v>
+        <v>6.071199536436097</v>
       </c>
       <c r="E7">
-        <v>8.269386795897073</v>
+        <v>13.39028061564526</v>
       </c>
       <c r="F7">
-        <v>19.87627026084238</v>
+        <v>29.64463970660647</v>
       </c>
       <c r="G7">
-        <v>2.103305441765861</v>
+        <v>3.672647363509661</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.55605999889028</v>
+        <v>14.61668674659325</v>
       </c>
       <c r="L7">
-        <v>5.251622521228664</v>
+        <v>9.221554566284885</v>
       </c>
       <c r="M7">
-        <v>14.95394129636555</v>
+        <v>17.55907032119942</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.54140402957045</v>
+        <v>26.64517773472397</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.811589453143256</v>
+        <v>13.01321255211206</v>
       </c>
       <c r="D8">
-        <v>4.798384463510723</v>
+        <v>6.095295757568204</v>
       </c>
       <c r="E8">
-        <v>8.360529354227467</v>
+        <v>13.34801567935016</v>
       </c>
       <c r="F8">
-        <v>20.21109448752304</v>
+        <v>29.50213703537013</v>
       </c>
       <c r="G8">
-        <v>2.094772548091727</v>
+        <v>3.669446204243509</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.33786722599687</v>
+        <v>15.27173922412856</v>
       </c>
       <c r="L8">
-        <v>5.180057616337774</v>
+        <v>9.185660863366651</v>
       </c>
       <c r="M8">
-        <v>16.1349120351831</v>
+        <v>17.82026915289108</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.46963602845308</v>
+        <v>26.46867268095908</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.67037938643938</v>
+        <v>13.08566892957344</v>
       </c>
       <c r="D9">
-        <v>4.97782946444617</v>
+        <v>6.143290898204762</v>
       </c>
       <c r="E9">
-        <v>8.590526256240583</v>
+        <v>13.28592908880002</v>
       </c>
       <c r="F9">
-        <v>21.09019672090898</v>
+        <v>29.29928062963338</v>
       </c>
       <c r="G9">
-        <v>2.078894107218274</v>
+        <v>3.663787364642809</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.4576357870353</v>
+        <v>16.48589509210368</v>
       </c>
       <c r="L9">
-        <v>5.056690799445454</v>
+        <v>9.123522872450087</v>
       </c>
       <c r="M9">
-        <v>18.28451034172409</v>
+        <v>18.33898446761839</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.52603592658156</v>
+        <v>26.18115470061339</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.30133331081596</v>
+        <v>13.15370700262316</v>
       </c>
       <c r="D10">
-        <v>5.1079812603447</v>
+        <v>6.178904121072875</v>
       </c>
       <c r="E10">
-        <v>8.7925931996119</v>
+        <v>13.25304492477678</v>
       </c>
       <c r="F10">
-        <v>21.8794780581107</v>
+        <v>29.19760947095903</v>
       </c>
       <c r="G10">
-        <v>2.067680161677831</v>
+        <v>3.660002761890659</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.52572542102594</v>
+        <v>17.32645172915916</v>
       </c>
       <c r="L10">
-        <v>4.977102233883336</v>
+        <v>9.082871393195401</v>
       </c>
       <c r="M10">
-        <v>19.92929150665011</v>
+        <v>18.72110813439992</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.70642015755808</v>
+        <v>26.00606814467543</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.58752724436955</v>
+        <v>13.1878030325351</v>
       </c>
       <c r="D11">
-        <v>5.1667395324215</v>
+        <v>6.195159848530275</v>
       </c>
       <c r="E11">
-        <v>8.89205939460253</v>
+        <v>13.24085893170866</v>
       </c>
       <c r="F11">
-        <v>22.27088737066169</v>
+        <v>29.16177089849388</v>
       </c>
       <c r="G11">
-        <v>2.062660138639882</v>
+        <v>3.658361138520943</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.41899774090676</v>
+        <v>17.69615379672766</v>
       </c>
       <c r="L11">
-        <v>4.943476616515436</v>
+        <v>9.065458166705543</v>
       </c>
       <c r="M11">
-        <v>20.64032555498643</v>
+        <v>18.89455086178097</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.82252488645983</v>
+        <v>25.93435726636874</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.69572973703204</v>
+        <v>13.20115948494104</v>
       </c>
       <c r="D12">
-        <v>5.188919533568023</v>
+        <v>6.201321474057477</v>
       </c>
       <c r="E12">
-        <v>8.930836924262952</v>
+        <v>13.23664377090328</v>
       </c>
       <c r="F12">
-        <v>22.42383283466726</v>
+        <v>29.14970625691047</v>
       </c>
       <c r="G12">
-        <v>2.060769372148832</v>
+        <v>3.657750936290341</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.7505225582421</v>
+        <v>17.83422099345435</v>
       </c>
       <c r="L12">
-        <v>4.931132061860543</v>
+        <v>9.059019017421715</v>
       </c>
       <c r="M12">
-        <v>20.9043202445701</v>
+        <v>18.9601227024849</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.87168985170661</v>
+        <v>25.90835097751964</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.67243478478593</v>
+        <v>13.19826326364902</v>
       </c>
       <c r="D13">
-        <v>5.184145889976039</v>
+        <v>6.199994225608778</v>
       </c>
       <c r="E13">
-        <v>8.92243561242846</v>
+        <v>13.23753380856822</v>
       </c>
       <c r="F13">
-        <v>22.39068196626391</v>
+        <v>29.15223744494509</v>
       </c>
       <c r="G13">
-        <v>2.061176153433871</v>
+        <v>3.657881846204158</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.67942084619143</v>
+        <v>17.80457322916952</v>
       </c>
       <c r="L13">
-        <v>4.933773087164826</v>
+        <v>9.060398921331423</v>
       </c>
       <c r="M13">
-        <v>20.84769666061261</v>
+        <v>18.9460062065894</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.86086540590929</v>
+        <v>25.91390066948408</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.59643284999484</v>
+        <v>13.18889300076974</v>
       </c>
       <c r="D14">
-        <v>5.168565736821449</v>
+        <v>6.195666661671552</v>
       </c>
       <c r="E14">
-        <v>8.895227208661765</v>
+        <v>13.24050413993236</v>
       </c>
       <c r="F14">
-        <v>22.28337515472352</v>
+        <v>29.16074808715392</v>
       </c>
       <c r="G14">
-        <v>2.062504388479651</v>
+        <v>3.658310707788755</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.44640695891929</v>
+        <v>17.70755194517431</v>
       </c>
       <c r="L14">
-        <v>4.942453122178851</v>
+        <v>9.064925312310264</v>
       </c>
       <c r="M14">
-        <v>20.66214941542029</v>
+        <v>18.8999479349445</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.82646384205176</v>
+        <v>25.93219464021896</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.54985560495364</v>
+        <v>13.18321117341844</v>
       </c>
       <c r="D15">
-        <v>5.159013108163258</v>
+        <v>6.19301661740618</v>
       </c>
       <c r="E15">
-        <v>8.878706866036474</v>
+        <v>13.24237558532602</v>
       </c>
       <c r="F15">
-        <v>22.21826429122314</v>
+        <v>29.16615757446884</v>
       </c>
       <c r="G15">
-        <v>2.063319254125728</v>
+        <v>3.658574886566111</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.30280466825176</v>
+        <v>17.64786912928149</v>
       </c>
       <c r="L15">
-        <v>4.94782108370138</v>
+        <v>9.067718014926724</v>
       </c>
       <c r="M15">
-        <v>20.54781429510803</v>
+        <v>18.8717204503428</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.80607766766847</v>
+        <v>25.94355009651089</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.28260825313544</v>
+        <v>13.15154143148547</v>
       </c>
       <c r="D16">
-        <v>5.104131704152985</v>
+        <v>6.177842710034679</v>
       </c>
       <c r="E16">
-        <v>8.786246977072439</v>
+        <v>13.25389716817354</v>
       </c>
       <c r="F16">
-        <v>21.85455626595473</v>
+        <v>29.20016194874171</v>
       </c>
       <c r="G16">
-        <v>2.068009743578557</v>
+        <v>3.660111650679378</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.46639977341427</v>
+        <v>17.30202625112026</v>
       </c>
       <c r="L16">
-        <v>4.979353128621599</v>
+        <v>9.084031077773286</v>
       </c>
       <c r="M16">
-        <v>19.88208294864905</v>
+        <v>18.70976102717882</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.69954372128581</v>
+        <v>26.01091499356663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.11840539323813</v>
+        <v>13.13291368007086</v>
       </c>
       <c r="D17">
-        <v>5.070344225386804</v>
+        <v>6.168546709975518</v>
       </c>
       <c r="E17">
-        <v>8.731477504480464</v>
+        <v>13.26167605028697</v>
       </c>
       <c r="F17">
-        <v>21.63977757832899</v>
+        <v>29.22369630244686</v>
       </c>
       <c r="G17">
-        <v>2.070907005656021</v>
+        <v>3.661074855259831</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.94118791179078</v>
+        <v>17.08653583624413</v>
       </c>
       <c r="L17">
-        <v>4.999369723889119</v>
+        <v>9.094314808811284</v>
       </c>
       <c r="M17">
-        <v>19.46421560394403</v>
+        <v>18.61026802528296</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.64312822595916</v>
+        <v>26.05427953594017</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.02388442592651</v>
+        <v>13.12249600496157</v>
       </c>
       <c r="D18">
-        <v>5.050868636559623</v>
+        <v>6.163205202095949</v>
       </c>
       <c r="E18">
-        <v>8.700684156602644</v>
+        <v>13.26641125196905</v>
       </c>
       <c r="F18">
-        <v>21.51928502447715</v>
+        <v>29.23821217497498</v>
       </c>
       <c r="G18">
-        <v>2.072581177870123</v>
+        <v>3.661636399708305</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.63462174465737</v>
+        <v>16.96140440894613</v>
       </c>
       <c r="L18">
-        <v>5.011124360695253</v>
+        <v>9.100331351189189</v>
       </c>
       <c r="M18">
-        <v>19.22036366160903</v>
+        <v>18.55300885048969</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.61386683647627</v>
+        <v>26.07996826999555</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.99187009364769</v>
+        <v>13.11901989575677</v>
       </c>
       <c r="D19">
-        <v>5.044267539365359</v>
+        <v>6.161397630900073</v>
       </c>
       <c r="E19">
-        <v>8.690378937356643</v>
+        <v>13.26805931476657</v>
       </c>
       <c r="F19">
-        <v>21.479008442562</v>
+        <v>29.2432949350406</v>
       </c>
       <c r="G19">
-        <v>2.073149396845234</v>
+        <v>3.661827824947582</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.53005183755258</v>
+        <v>16.91883671125193</v>
       </c>
       <c r="L19">
-        <v>5.015145269172523</v>
+        <v>9.102385911730062</v>
       </c>
       <c r="M19">
-        <v>19.13719486908123</v>
+        <v>18.53361772177688</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.60449742519352</v>
+        <v>26.08879402537965</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.13589334923942</v>
+        <v>13.13486599822844</v>
       </c>
       <c r="D20">
-        <v>5.073945346670174</v>
+        <v>6.169535750300424</v>
       </c>
       <c r="E20">
-        <v>8.737234275072314</v>
+        <v>13.26082095810851</v>
       </c>
       <c r="F20">
-        <v>21.66232568689882</v>
+        <v>29.2210895811581</v>
       </c>
       <c r="G20">
-        <v>2.070597796031401</v>
+        <v>3.660971541120238</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.9975604309581</v>
+        <v>17.10959884218116</v>
       </c>
       <c r="L20">
-        <v>4.997213794152395</v>
+        <v>9.093209574119305</v>
       </c>
       <c r="M20">
-        <v>19.50906049847835</v>
+        <v>18.62086306154313</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.64880164355278</v>
+        <v>26.04958598004975</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.61876150936413</v>
+        <v>13.19163325724553</v>
       </c>
       <c r="D21">
-        <v>5.17314395976906</v>
+        <v>6.196937626950807</v>
       </c>
       <c r="E21">
-        <v>8.90318858750959</v>
+        <v>13.23962083730166</v>
       </c>
       <c r="F21">
-        <v>22.31476492748259</v>
+        <v>29.15820734491914</v>
       </c>
       <c r="G21">
-        <v>2.062113989020661</v>
+        <v>3.658184430615337</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.5150308631656</v>
+        <v>17.73610265752917</v>
       </c>
       <c r="L21">
-        <v>4.939892882864001</v>
+        <v>9.063591601370199</v>
       </c>
       <c r="M21">
-        <v>20.71679111610233</v>
+        <v>18.91347967856688</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.83642497834501</v>
+        <v>25.92679001084565</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.93332120578111</v>
+        <v>13.23132407503076</v>
       </c>
       <c r="D22">
-        <v>5.2375633186491</v>
+        <v>6.214879996648291</v>
       </c>
       <c r="E22">
-        <v>9.018142587648628</v>
+        <v>13.22809360816133</v>
       </c>
       <c r="F22">
-        <v>22.76875490654303</v>
+        <v>29.12589576788882</v>
       </c>
       <c r="G22">
-        <v>2.05662804878933</v>
+        <v>3.656429574633746</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.46756067600924</v>
+        <v>18.13426238443354</v>
       </c>
       <c r="L22">
-        <v>4.904706046125487</v>
+        <v>9.045137041754003</v>
       </c>
       <c r="M22">
-        <v>21.47550797300138</v>
+        <v>19.10407393278955</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.98948019389243</v>
+        <v>25.8532369183984</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.76554227954478</v>
+        <v>13.20990590346864</v>
       </c>
       <c r="D23">
-        <v>5.203220898151295</v>
+        <v>6.205301396391418</v>
       </c>
       <c r="E23">
-        <v>8.956186435746515</v>
+        <v>13.23403269301064</v>
       </c>
       <c r="F23">
-        <v>22.52390572056406</v>
+        <v>29.14233431717634</v>
       </c>
       <c r="G23">
-        <v>2.059551146945858</v>
+        <v>3.65736009283287</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.96273343040074</v>
+        <v>17.92282339075573</v>
       </c>
       <c r="L23">
-        <v>4.923271249732135</v>
+        <v>9.054904120995436</v>
       </c>
       <c r="M23">
-        <v>21.07333598639482</v>
+        <v>19.00242615204037</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.9049105832171</v>
+        <v>25.89187788791441</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.12798740936443</v>
+        <v>13.13398244614458</v>
       </c>
       <c r="D24">
-        <v>5.072317437239536</v>
+        <v>6.169088596004369</v>
       </c>
       <c r="E24">
-        <v>8.734629478367195</v>
+        <v>13.26120672604616</v>
       </c>
       <c r="F24">
-        <v>21.6521223901414</v>
+        <v>29.22226501023387</v>
       </c>
       <c r="G24">
-        <v>2.070737563124608</v>
+        <v>3.66101822518697</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.97208879636405</v>
+        <v>17.09917592084382</v>
       </c>
       <c r="L24">
-        <v>4.998187722486339</v>
+        <v>9.093708925837332</v>
       </c>
       <c r="M24">
-        <v>19.48879738647049</v>
+        <v>18.61607322648069</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.64622683252638</v>
+        <v>26.05170557641761</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.43772279913887</v>
+        <v>13.06344580234004</v>
       </c>
       <c r="D25">
-        <v>4.92954848707259</v>
+        <v>6.130237839166509</v>
       </c>
       <c r="E25">
-        <v>8.522619728247124</v>
+        <v>13.30049296090898</v>
       </c>
       <c r="F25">
-        <v>20.82766085977468</v>
+        <v>29.34588637952891</v>
       </c>
       <c r="G25">
-        <v>2.083104987630074</v>
+        <v>3.665252436640443</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.65333193292186</v>
+        <v>16.16591452619996</v>
       </c>
       <c r="L25">
-        <v>5.08818049804602</v>
+        <v>9.139452585919415</v>
       </c>
       <c r="M25">
-        <v>17.71046739012652</v>
+        <v>18.19826655290242</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.48771588855981</v>
+        <v>26.2526176469845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_152/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.02148943381431</v>
+        <v>9.929866118246691</v>
       </c>
       <c r="D2">
-        <v>6.101878592698917</v>
+        <v>4.823336315641663</v>
       </c>
       <c r="E2">
-        <v>13.33796903530186</v>
+        <v>8.388620376419047</v>
       </c>
       <c r="F2">
-        <v>29.46868237896947</v>
+        <v>20.31652752867729</v>
       </c>
       <c r="G2">
-        <v>3.668620872007347</v>
+        <v>2.092520783542279</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.44481571709794</v>
+        <v>20.79517858441991</v>
       </c>
       <c r="L2">
-        <v>9.17649479592067</v>
+        <v>5.161792533832419</v>
       </c>
       <c r="M2">
-        <v>17.89159082318793</v>
+        <v>16.44274179765287</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.42479909034651</v>
+        <v>16.462824940608</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.99936632806163</v>
+        <v>9.587634025677582</v>
       </c>
       <c r="D3">
-        <v>6.082845908519899</v>
+        <v>4.750836225197403</v>
       </c>
       <c r="E3">
-        <v>13.36868267306908</v>
+        <v>8.310988217814726</v>
       </c>
       <c r="F3">
-        <v>29.57150027655167</v>
+        <v>20.02739982969709</v>
       </c>
       <c r="G3">
-        <v>3.671061570125231</v>
+        <v>2.099118032844146</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.93775709279146</v>
+        <v>19.44036406867668</v>
       </c>
       <c r="L3">
-        <v>9.203705098353741</v>
+        <v>5.216035374927155</v>
       </c>
       <c r="M3">
-        <v>17.68531480047369</v>
+        <v>15.5361880988802</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.5564774297373</v>
+        <v>16.49702289832383</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.98891863063415</v>
+        <v>9.379140470667604</v>
       </c>
       <c r="D4">
-        <v>6.071262935115393</v>
+        <v>4.706127525822943</v>
       </c>
       <c r="E4">
-        <v>13.39015640187051</v>
+        <v>8.269599646663957</v>
       </c>
       <c r="F4">
-        <v>29.64421741816964</v>
+        <v>19.87703369936143</v>
       </c>
       <c r="G4">
-        <v>3.672638510521594</v>
+        <v>2.10328227876566</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.61845896621865</v>
+        <v>18.56100584013272</v>
       </c>
       <c r="L4">
-        <v>9.221454542092367</v>
+        <v>5.251423168108071</v>
       </c>
       <c r="M4">
-        <v>17.55975735255869</v>
+        <v>14.95717500160581</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.6446756363319</v>
+        <v>16.54110948345576</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.98545272501369</v>
+        <v>9.29470194770882</v>
       </c>
       <c r="D5">
-        <v>6.066570462588697</v>
+        <v>4.687870152241011</v>
       </c>
       <c r="E5">
-        <v>13.39956377547744</v>
+        <v>8.254276640504067</v>
       </c>
       <c r="F5">
-        <v>29.67624845918291</v>
+        <v>19.82239936610959</v>
       </c>
       <c r="G5">
-        <v>3.673300891530008</v>
+        <v>2.105008740027866</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.48652319269797</v>
+        <v>18.19067444572448</v>
       </c>
       <c r="L5">
-        <v>9.228950097597512</v>
+        <v>5.266358728621853</v>
       </c>
       <c r="M5">
-        <v>17.50891720582386</v>
+        <v>14.71578932798059</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.68245763504008</v>
+        <v>16.56456857422287</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.98492510091399</v>
+        <v>9.280716077349307</v>
       </c>
       <c r="D6">
-        <v>6.065793003471857</v>
+        <v>4.684836535863952</v>
       </c>
       <c r="E6">
-        <v>13.40116549154802</v>
+        <v>8.25182437908733</v>
       </c>
       <c r="F6">
-        <v>29.68171166107327</v>
+        <v>19.81372244877749</v>
       </c>
       <c r="G6">
-        <v>3.673412075068542</v>
+        <v>2.105297226123453</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.46451114366066</v>
+        <v>18.12845628986958</v>
       </c>
       <c r="L6">
-        <v>9.230210597082745</v>
+        <v>5.268869612638929</v>
       </c>
       <c r="M6">
-        <v>17.50049634240744</v>
+        <v>14.67538589621683</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.68884226478974</v>
+        <v>16.56878663476968</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.98886867949142</v>
+        <v>9.377999426800141</v>
       </c>
       <c r="D7">
-        <v>6.071199536436097</v>
+        <v>4.705881441080981</v>
       </c>
       <c r="E7">
-        <v>13.39028061564526</v>
+        <v>8.269386795897073</v>
       </c>
       <c r="F7">
-        <v>29.64463970660647</v>
+        <v>19.87627026084246</v>
       </c>
       <c r="G7">
-        <v>3.672647363509661</v>
+        <v>2.103305441766127</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.61668674659325</v>
+        <v>18.55605999889029</v>
       </c>
       <c r="L7">
-        <v>9.221554566284885</v>
+        <v>5.251622521228663</v>
       </c>
       <c r="M7">
-        <v>17.55907032119942</v>
+        <v>14.95394129636554</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.64517773472397</v>
+        <v>16.54140402957048</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.01321255211206</v>
+        <v>9.811589453143311</v>
       </c>
       <c r="D8">
-        <v>6.095295757568204</v>
+        <v>4.798384463510717</v>
       </c>
       <c r="E8">
-        <v>13.34801567935016</v>
+        <v>8.36052935422747</v>
       </c>
       <c r="F8">
-        <v>29.50213703537013</v>
+        <v>20.21109448752301</v>
       </c>
       <c r="G8">
-        <v>3.669446204243509</v>
+        <v>2.094772548091993</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.27173922412856</v>
+        <v>20.3378672259969</v>
       </c>
       <c r="L8">
-        <v>9.185660863366651</v>
+        <v>5.180057616337748</v>
       </c>
       <c r="M8">
-        <v>17.82026915289108</v>
+        <v>16.13491203518309</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.46867268095908</v>
+        <v>16.46963602845303</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.08566892957344</v>
+        <v>10.67037938643944</v>
       </c>
       <c r="D9">
-        <v>6.143290898204762</v>
+        <v>4.977829464446403</v>
       </c>
       <c r="E9">
-        <v>13.28592908880002</v>
+        <v>8.590526256240574</v>
       </c>
       <c r="F9">
-        <v>29.29928062963338</v>
+        <v>21.09019672090889</v>
       </c>
       <c r="G9">
-        <v>3.663787364642809</v>
+        <v>2.078894107218006</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.48589509210368</v>
+        <v>23.4576357870353</v>
       </c>
       <c r="L9">
-        <v>9.123522872450087</v>
+        <v>5.056690799445515</v>
       </c>
       <c r="M9">
-        <v>18.33898446761839</v>
+        <v>18.28451034172408</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.18115470061339</v>
+        <v>16.52603592658152</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.15370700262316</v>
+        <v>11.30133331081589</v>
       </c>
       <c r="D10">
-        <v>6.178904121072875</v>
+        <v>5.107981260344695</v>
       </c>
       <c r="E10">
-        <v>13.25304492477678</v>
+        <v>8.792593199611934</v>
       </c>
       <c r="F10">
-        <v>29.19760947095903</v>
+        <v>21.87947805811068</v>
       </c>
       <c r="G10">
-        <v>3.660002761890659</v>
+        <v>2.067680161677832</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.32645172915916</v>
+        <v>25.52572542102592</v>
       </c>
       <c r="L10">
-        <v>9.082871393195401</v>
+        <v>4.977102233883384</v>
       </c>
       <c r="M10">
-        <v>18.72110813439992</v>
+        <v>19.92929150665009</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.00606814467543</v>
+        <v>16.70642015755806</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.1878030325351</v>
+        <v>11.58752724436965</v>
       </c>
       <c r="D11">
-        <v>6.195159848530275</v>
+        <v>5.166739532421482</v>
       </c>
       <c r="E11">
-        <v>13.24085893170866</v>
+        <v>8.89205939460261</v>
       </c>
       <c r="F11">
-        <v>29.16177089849388</v>
+        <v>22.27088737066166</v>
       </c>
       <c r="G11">
-        <v>3.658361138520943</v>
+        <v>2.062660138640016</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.69615379672766</v>
+        <v>26.41899774090683</v>
       </c>
       <c r="L11">
-        <v>9.065458166705543</v>
+        <v>4.94347661651553</v>
       </c>
       <c r="M11">
-        <v>18.89455086178097</v>
+        <v>20.64032555498646</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.93435726636874</v>
+        <v>16.82252488645976</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.20115948494104</v>
+        <v>11.69572973703201</v>
       </c>
       <c r="D12">
-        <v>6.201321474057477</v>
+        <v>5.188919533568178</v>
       </c>
       <c r="E12">
-        <v>13.23664377090328</v>
+        <v>8.930836924262934</v>
       </c>
       <c r="F12">
-        <v>29.14970625691047</v>
+        <v>22.42383283466729</v>
       </c>
       <c r="G12">
-        <v>3.657750936290341</v>
+        <v>2.060769372148566</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.83422099345435</v>
+        <v>26.75052255824204</v>
       </c>
       <c r="L12">
-        <v>9.059019017421715</v>
+        <v>4.931132061860573</v>
       </c>
       <c r="M12">
-        <v>18.9601227024849</v>
+        <v>20.90432024457005</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.90835097751964</v>
+        <v>16.87168985170668</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.19826326364902</v>
+        <v>11.67243478478587</v>
       </c>
       <c r="D13">
-        <v>6.199994225608778</v>
+        <v>5.184145889976103</v>
       </c>
       <c r="E13">
-        <v>13.23753380856822</v>
+        <v>8.922435612428437</v>
       </c>
       <c r="F13">
-        <v>29.15223744494509</v>
+        <v>22.39068196626378</v>
       </c>
       <c r="G13">
-        <v>3.657881846204158</v>
+        <v>2.061176153433739</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.80457322916952</v>
+        <v>26.6794208461915</v>
       </c>
       <c r="L13">
-        <v>9.060398921331423</v>
+        <v>4.933773087164832</v>
       </c>
       <c r="M13">
-        <v>18.9460062065894</v>
+        <v>20.84769666061267</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.91390066948408</v>
+        <v>16.86086540590914</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.18889300076974</v>
+        <v>11.59643284999486</v>
       </c>
       <c r="D14">
-        <v>6.195666661671552</v>
+        <v>5.168565736821542</v>
       </c>
       <c r="E14">
-        <v>13.24050413993236</v>
+        <v>8.895227208661739</v>
       </c>
       <c r="F14">
-        <v>29.16074808715392</v>
+        <v>22.28337515472343</v>
       </c>
       <c r="G14">
-        <v>3.658310707788755</v>
+        <v>2.062504388479652</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.70755194517431</v>
+        <v>26.44640695891934</v>
       </c>
       <c r="L14">
-        <v>9.064925312310264</v>
+        <v>4.94245312217879</v>
       </c>
       <c r="M14">
-        <v>18.8999479349445</v>
+        <v>20.66214941542034</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.93219464021896</v>
+        <v>16.82646384205168</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.18321117341844</v>
+        <v>11.54985560495364</v>
       </c>
       <c r="D15">
-        <v>6.19301661740618</v>
+        <v>5.1590131081633</v>
       </c>
       <c r="E15">
-        <v>13.24237558532602</v>
+        <v>8.878706866036397</v>
       </c>
       <c r="F15">
-        <v>29.16615757446884</v>
+        <v>22.21826429122306</v>
       </c>
       <c r="G15">
-        <v>3.658574886566111</v>
+        <v>2.063319254125864</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.64786912928149</v>
+        <v>26.30280466825177</v>
       </c>
       <c r="L15">
-        <v>9.067718014926724</v>
+        <v>4.947821083701293</v>
       </c>
       <c r="M15">
-        <v>18.8717204503428</v>
+        <v>20.54781429510807</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.94355009651089</v>
+        <v>16.80607766766842</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.15154143148547</v>
+        <v>11.2826082531354</v>
       </c>
       <c r="D16">
-        <v>6.177842710034679</v>
+        <v>5.104131704152866</v>
       </c>
       <c r="E16">
-        <v>13.25389716817354</v>
+        <v>8.786246977072413</v>
       </c>
       <c r="F16">
-        <v>29.20016194874171</v>
+        <v>21.85455626595465</v>
       </c>
       <c r="G16">
-        <v>3.660111650679378</v>
+        <v>2.068009743578421</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.30202625112026</v>
+        <v>25.4663997734143</v>
       </c>
       <c r="L16">
-        <v>9.084031077773286</v>
+        <v>4.979353128621544</v>
       </c>
       <c r="M16">
-        <v>18.70976102717882</v>
+        <v>19.88208294864907</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.01091499356663</v>
+        <v>16.69954372128571</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.13291368007086</v>
+        <v>11.11840539323809</v>
       </c>
       <c r="D17">
-        <v>6.168546709975518</v>
+        <v>5.070344225386634</v>
       </c>
       <c r="E17">
-        <v>13.26167605028697</v>
+        <v>8.731477504480461</v>
       </c>
       <c r="F17">
-        <v>29.22369630244686</v>
+        <v>21.63977757832906</v>
       </c>
       <c r="G17">
-        <v>3.661074855259831</v>
+        <v>2.070907005655888</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.08653583624413</v>
+        <v>24.94118791179076</v>
       </c>
       <c r="L17">
-        <v>9.094314808811284</v>
+        <v>4.999369723889207</v>
       </c>
       <c r="M17">
-        <v>18.61026802528296</v>
+        <v>19.46421560394403</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.05427953594017</v>
+        <v>16.64312822595916</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.12249600496157</v>
+        <v>11.0238844259266</v>
       </c>
       <c r="D18">
-        <v>6.163205202095949</v>
+        <v>5.050868636559628</v>
       </c>
       <c r="E18">
-        <v>13.26641125196905</v>
+        <v>8.700684156602675</v>
       </c>
       <c r="F18">
-        <v>29.23821217497498</v>
+        <v>21.51928502447715</v>
       </c>
       <c r="G18">
-        <v>3.661636399708305</v>
+        <v>2.072581177870121</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.96140440894613</v>
+        <v>24.63462174465738</v>
       </c>
       <c r="L18">
-        <v>9.100331351189189</v>
+        <v>5.011124360695251</v>
       </c>
       <c r="M18">
-        <v>18.55300885048969</v>
+        <v>19.22036366160904</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.07996826999555</v>
+        <v>16.61386683647627</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.11901989575677</v>
+        <v>10.99187009364772</v>
       </c>
       <c r="D19">
-        <v>6.161397630900073</v>
+        <v>5.044267539365457</v>
       </c>
       <c r="E19">
-        <v>13.26805931476657</v>
+        <v>8.690378937356609</v>
       </c>
       <c r="F19">
-        <v>29.2432949350406</v>
+        <v>21.47900844256194</v>
       </c>
       <c r="G19">
-        <v>3.661827824947582</v>
+        <v>2.073149396845235</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.91883671125193</v>
+        <v>24.53005183755258</v>
       </c>
       <c r="L19">
-        <v>9.102385911730062</v>
+        <v>5.015145269172495</v>
       </c>
       <c r="M19">
-        <v>18.53361772177688</v>
+        <v>19.13719486908125</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.08879402537965</v>
+        <v>16.60449742519347</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.13486599822844</v>
+        <v>11.13589334923935</v>
       </c>
       <c r="D20">
-        <v>6.169535750300424</v>
+        <v>5.073945346670276</v>
       </c>
       <c r="E20">
-        <v>13.26082095810851</v>
+        <v>8.737234275072355</v>
       </c>
       <c r="F20">
-        <v>29.2210895811581</v>
+        <v>21.66232568689876</v>
       </c>
       <c r="G20">
-        <v>3.660971541120238</v>
+        <v>2.070597796031536</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.10959884218116</v>
+        <v>24.99756043095807</v>
       </c>
       <c r="L20">
-        <v>9.093209574119305</v>
+        <v>4.997213794152463</v>
       </c>
       <c r="M20">
-        <v>18.62086306154313</v>
+        <v>19.50906049847834</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.04958598004975</v>
+        <v>16.64880164355278</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.19163325724553</v>
+        <v>11.61876150936412</v>
       </c>
       <c r="D21">
-        <v>6.196937626950807</v>
+        <v>5.173143959769131</v>
       </c>
       <c r="E21">
-        <v>13.23962083730166</v>
+        <v>8.9031885875097</v>
       </c>
       <c r="F21">
-        <v>29.15820734491914</v>
+        <v>22.31476492748258</v>
       </c>
       <c r="G21">
-        <v>3.658184430615337</v>
+        <v>2.062113989020395</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.73610265752917</v>
+        <v>26.51503086316559</v>
       </c>
       <c r="L21">
-        <v>9.063591601370199</v>
+        <v>4.939892882864092</v>
       </c>
       <c r="M21">
-        <v>18.91347967856688</v>
+        <v>20.7167911161023</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.92679001084565</v>
+        <v>16.83642497834499</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.23132407503076</v>
+        <v>11.93332120578112</v>
       </c>
       <c r="D22">
-        <v>6.214879996648291</v>
+        <v>5.237563318649197</v>
       </c>
       <c r="E22">
-        <v>13.22809360816133</v>
+        <v>9.018142587648684</v>
       </c>
       <c r="F22">
-        <v>29.12589576788882</v>
+        <v>22.768754906543</v>
       </c>
       <c r="G22">
-        <v>3.656429574633746</v>
+        <v>2.056628048789331</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.13426238443354</v>
+        <v>27.46756067600928</v>
       </c>
       <c r="L22">
-        <v>9.045137041754003</v>
+        <v>4.90470604612558</v>
       </c>
       <c r="M22">
-        <v>19.10407393278955</v>
+        <v>21.47550797300141</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.8532369183984</v>
+        <v>16.98948019389235</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.20990590346864</v>
+        <v>11.76554227954479</v>
       </c>
       <c r="D23">
-        <v>6.205301396391418</v>
+        <v>5.203220898151232</v>
       </c>
       <c r="E23">
-        <v>13.23403269301064</v>
+        <v>8.95618643574654</v>
       </c>
       <c r="F23">
-        <v>29.14233431717634</v>
+        <v>22.52390572056395</v>
       </c>
       <c r="G23">
-        <v>3.65736009283287</v>
+        <v>2.059551146946124</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.92282339075573</v>
+        <v>26.96273343040081</v>
       </c>
       <c r="L23">
-        <v>9.054904120995436</v>
+        <v>4.923271249732164</v>
       </c>
       <c r="M23">
-        <v>19.00242615204037</v>
+        <v>21.07333598639484</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.89187788791441</v>
+        <v>16.90491058321695</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.13398244614458</v>
+        <v>11.12798740936447</v>
       </c>
       <c r="D24">
-        <v>6.169088596004369</v>
+        <v>5.072317437239643</v>
       </c>
       <c r="E24">
-        <v>13.26120672604616</v>
+        <v>8.734629478367246</v>
       </c>
       <c r="F24">
-        <v>29.22226501023387</v>
+        <v>21.65212239014146</v>
       </c>
       <c r="G24">
-        <v>3.66101822518697</v>
+        <v>2.07073756312407</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.09917592084382</v>
+        <v>24.97208879636402</v>
       </c>
       <c r="L24">
-        <v>9.093708925837332</v>
+        <v>4.998187722486342</v>
       </c>
       <c r="M24">
-        <v>18.61607322648069</v>
+        <v>19.48879738647045</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.05170557641761</v>
+        <v>16.64622683252645</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.06344580234004</v>
+        <v>10.43772279913893</v>
       </c>
       <c r="D25">
-        <v>6.130237839166509</v>
+        <v>4.92954848707259</v>
       </c>
       <c r="E25">
-        <v>13.30049296090898</v>
+        <v>8.522619728247218</v>
       </c>
       <c r="F25">
-        <v>29.34588637952891</v>
+        <v>20.82766085977465</v>
       </c>
       <c r="G25">
-        <v>3.665252436640443</v>
+        <v>2.083104987630076</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.16591452619996</v>
+        <v>22.65333193292188</v>
       </c>
       <c r="L25">
-        <v>9.139452585919415</v>
+        <v>5.088180498046023</v>
       </c>
       <c r="M25">
-        <v>18.19826655290242</v>
+        <v>17.71046739012652</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.2526176469845</v>
+        <v>16.48771588855979</v>
       </c>
     </row>
   </sheetData>
